--- a/analyze/RunningResult.xlsx
+++ b/analyze/RunningResult.xlsx
@@ -5,27 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoyun/doc/syncInGoogle/学习/程序员技术/CS5100 AI Foundations/Week14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoyun/IdeaProjects/2048/analyze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43055A5-7DEB-A448-97E7-83814D2D4AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5659A9-7AB7-A649-954B-6FE595D69E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="22100" windowWidth="33600" windowHeight="18840" xr2:uid="{41B4E550-043A-E342-966F-97D76C42C622}"/>
+    <workbookView xWindow="2720" yWindow="22100" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{41B4E550-043A-E342-966F-97D76C42C622}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation_Score" sheetId="1" r:id="rId1"/>
     <sheet name="Full" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Evaluation_Score!$A$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Evaluation_Score!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Evaluation_Score!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Evaluation_Score!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Evaluation_Score!$D$2:$D$36</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -91,10 +84,10 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of Score</t>
+    <t>Column Labels</t>
   </si>
   <si>
-    <t>Column Labels</t>
+    <t>Average of Score</t>
   </si>
 </sst>
 </file>
@@ -134,9 +127,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -514,6 +506,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -575,13 +679,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>129400</c:v>
+                  <c:v>25880</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116084</c:v>
+                  <c:v>23216.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182784</c:v>
+                  <c:v>36556.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,10 +750,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15060</c:v>
+                  <c:v>3012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11504</c:v>
+                  <c:v>2300.8000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,10 +818,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>75268</c:v>
+                  <c:v>15053.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66348</c:v>
+                  <c:v>13269.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,10 +1604,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1784,7 +1888,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCA267ED-C863-8647-A072-6F06A765F95F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCA267ED-C863-8647-A072-6F06A765F95F}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -1849,9 +1953,9 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Score" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of Score" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="10">
     <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -1862,6 +1966,102 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2185,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D266A01-F84F-804C-8227-18EB9580BBC7}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2711,30 +2911,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31E8A30-88D5-6848-A13B-F703416A3240}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -2751,89 +2953,81 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>15060</v>
-      </c>
-      <c r="D3" s="1">
-        <v>75268</v>
-      </c>
-      <c r="E3" s="1">
-        <v>90328</v>
+      <c r="C3">
+        <v>3012</v>
+      </c>
+      <c r="D3">
+        <v>15053.6</v>
+      </c>
+      <c r="E3">
+        <v>9032.7999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>129400</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>129400</v>
+      <c r="B4">
+        <v>25880</v>
+      </c>
+      <c r="E4">
+        <v>25880</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>116084</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>116084</v>
+      <c r="B5">
+        <v>23216.799999999999</v>
+      </c>
+      <c r="E5">
+        <v>23216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>11504</v>
-      </c>
-      <c r="D6" s="1">
-        <v>66348</v>
-      </c>
-      <c r="E6" s="1">
-        <v>77852</v>
+      <c r="C6">
+        <v>2300.8000000000002</v>
+      </c>
+      <c r="D6">
+        <v>13269.6</v>
+      </c>
+      <c r="E6">
+        <v>7785.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>182784</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>182784</v>
+      <c r="B7">
+        <v>36556.800000000003</v>
+      </c>
+      <c r="E7">
+        <v>36556.800000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>428268</v>
-      </c>
-      <c r="C8" s="1">
-        <v>26564</v>
-      </c>
-      <c r="D8" s="1">
-        <v>141616</v>
-      </c>
-      <c r="E8" s="1">
-        <v>596448</v>
+      <c r="B8">
+        <v>28551.200000000001</v>
+      </c>
+      <c r="C8">
+        <v>2656.4</v>
+      </c>
+      <c r="D8">
+        <v>14161.6</v>
+      </c>
+      <c r="E8">
+        <v>17041.371428571427</v>
       </c>
     </row>
   </sheetData>
